--- a/Modelado_DB.xlsx
+++ b/Modelado_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUP\2 Cuatrimestre\Laboratorio de Computación II\TPI_Laboratorio_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1F23A-239F-4052-B0C6-C7F7CFA47DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C85BB0-7647-4BA9-BCD4-3E144DD29D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="478" xr2:uid="{2E32DD5D-3797-4BC0-AF65-B75AA79F818E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>PROVINCIAS</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>id_cliente</t>
-  </si>
-  <si>
-    <t>id_automovil</t>
   </si>
   <si>
     <t>id_vendedor</t>
@@ -791,7 +788,7 @@
   <dimension ref="A3:ALY1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,18 +824,18 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T3" s="3"/>
     </row>
@@ -853,43 +850,43 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>3</v>
@@ -903,11 +900,11 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="O6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>3</v>
@@ -915,11 +912,11 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="O7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>3</v>
@@ -931,14 +928,14 @@
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -958,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -970,38 +967,38 @@
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T11" s="3"/>
     </row>
@@ -1011,7 +1008,7 @@
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>1</v>
@@ -1020,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T12" s="3"/>
     </row>
@@ -1029,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>3</v>
@@ -1055,10 +1052,10 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>3</v>
@@ -1079,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>10</v>
@@ -1101,13 +1098,13 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>3</v>
@@ -1115,36 +1112,36 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="G19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
@@ -1155,16 +1152,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1175,20 +1172,20 @@
         <v>4</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T21" s="3"/>
     </row>
@@ -1200,22 +1197,22 @@
         <v>3</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>12</v>
@@ -1229,18 +1226,18 @@
     </row>
     <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>3</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="25" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>3</v>
@@ -1257,14 +1254,14 @@
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>3</v>
@@ -1276,31 +1273,31 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>1</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1308,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,31 +1318,31 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="3"/>
       <c r="K31" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>1</v>
@@ -1357,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>3</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="33" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>3</v>
@@ -1383,7 +1380,7 @@
     <row r="34" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S34" s="7" t="s">
         <v>10</v>
@@ -1397,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>3</v>
@@ -1409,21 +1406,21 @@
     <row r="36" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="3"/>
       <c r="K36" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K39" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="3"/>
       <c r="K41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>3</v>
@@ -1446,7 +1443,7 @@
     <row r="42" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
       <c r="K42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>3</v>
@@ -1455,7 +1452,7 @@
     <row r="43" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="2"/>
       <c r="K43" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>3</v>
@@ -1466,7 +1463,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="K44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>3</v>
@@ -1477,7 +1474,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>3</v>
@@ -1488,7 +1485,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="K46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>3</v>
@@ -1497,7 +1494,7 @@
     <row r="47" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="2"/>
       <c r="K47" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>3</v>
@@ -1505,27 +1502,27 @@
     </row>
     <row r="48" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K48" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K49" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K50" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K52" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
